--- a/trunk/WIP/Documents/Test/System Test/UJD_VN_NonFuncionalRequirement Test Case_v1.0_EN.xlsx
+++ b/trunk/WIP/Documents/Test/System Test/UJD_VN_NonFuncionalRequirement Test Case_v1.0_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User_Interface" sheetId="2" r:id="rId1"/>
@@ -768,7 +768,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -893,6 +893,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,12 +924,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1266,13 +1269,13 @@
       <c r="A2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="29"/>
       <c r="H2" s="28"/>
       <c r="I2" s="27"/>
@@ -1284,13 +1287,13 @@
       <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="29"/>
       <c r="H3" s="28"/>
       <c r="I3" s="27"/>
@@ -1302,13 +1305,13 @@
       <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="29"/>
       <c r="H4" s="28"/>
       <c r="I4" s="27"/>
@@ -1320,13 +1323,13 @@
       <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="29"/>
       <c r="H5" s="28"/>
       <c r="I5" s="27"/>
@@ -1345,10 +1348,10 @@
       <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="17"/>
@@ -1373,11 +1376,11 @@
         <f>COUNTIF(F$13:F$766,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="49">
         <f>COUNTA(A10:A893 )</f>
         <v>7</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="17"/>
@@ -1497,7 +1500,7 @@
       <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="47" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1521,7 +1524,7 @@
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="47" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1545,7 +1548,7 @@
       <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="47" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1569,7 +1572,7 @@
       <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="47" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1635,9 +1638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16:C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1670,13 +1673,13 @@
       <c r="A2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="29"/>
       <c r="H2" s="28"/>
       <c r="I2" s="27"/>
@@ -1688,13 +1691,13 @@
       <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="29"/>
       <c r="H3" s="28"/>
       <c r="I3" s="27"/>
@@ -1706,13 +1709,13 @@
       <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="29"/>
       <c r="H4" s="28"/>
       <c r="I4" s="27"/>
@@ -1724,13 +1727,13 @@
       <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="29"/>
       <c r="H5" s="28"/>
       <c r="I5" s="27"/>
@@ -1749,10 +1752,10 @@
       <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="17"/>
@@ -1763,7 +1766,7 @@
     <row r="7" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="22">
         <f>COUNTIF(E11:E818,"Pass")</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7" s="21">
         <f>COUNTIF(E11:E818,"Fail")</f>
@@ -1771,17 +1774,17 @@
       </c>
       <c r="C7" s="21">
         <f>E7-D7-B7-A7</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" s="20">
         <f>COUNTIF(F$11:F$691,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="49">
         <f>COUNTA(A11:A40)</f>
         <v>9</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="17"/>
@@ -1849,7 +1852,7 @@
         <v>87</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>72</v>
@@ -1873,7 +1876,7 @@
         <v>86</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>72</v>
@@ -1897,7 +1900,7 @@
         <v>83</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>72</v>
@@ -1921,7 +1924,7 @@
         <v>85</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>72</v>
@@ -1937,7 +1940,7 @@
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="44"/>
       <c r="G15" s="45"/>
     </row>
@@ -1956,7 +1959,7 @@
         <v>89</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>72</v>
@@ -1978,7 +1981,7 @@
         <v>91</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>72</v>
@@ -2000,7 +2003,7 @@
         <v>93</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>72</v>
@@ -2022,7 +2025,7 @@
         <v>95</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>72</v>
@@ -2044,7 +2047,7 @@
         <v>97</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>72</v>
@@ -2061,7 +2064,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F4 F8 E16:E20 E11:E14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F4 F8 E11:E14 E16:E20">
       <formula1>$J$3:$J$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2079,7 +2082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2107,52 +2110,52 @@
       <c r="A2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="14.25">
@@ -2168,10 +2171,10 @@
       <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1">
@@ -2191,10 +2194,10 @@
         <f>COUNTIF(F$11:F$684,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="49">
         <v>3</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" ht="14.25">
@@ -2230,22 +2233,22 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="135.75" customHeight="1">
       <c r="A11" s="7" t="str">
         <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[Usability-]</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="48" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2330,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2358,52 +2361,52 @@
       <c r="A2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="14.25">
@@ -2419,10 +2422,10 @@
       <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1">
@@ -2442,11 +2445,11 @@
         <f>COUNTIF(F$11:F$686,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="49">
         <f>COUNTA(A11:A40)</f>
         <v>9</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" ht="14.25">
@@ -2482,15 +2485,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="33.75" customHeight="1">
       <c r="A11" s="7" t="str">
@@ -2715,7 +2718,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2741,52 +2744,52 @@
       <c r="A2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="14.25">
@@ -2802,10 +2805,10 @@
       <c r="D6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1">
@@ -2825,10 +2828,10 @@
         <f>COUNTIF(F$10:F$685,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="49">
         <v>2</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" ht="14.25">
@@ -2877,13 +2880,13 @@
       <c r="D10" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="51">
       <c r="A11" s="7" t="str">
@@ -2899,13 +2902,13 @@
       <c r="D11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
@@ -2980,7 +2983,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F4 F8 E10:E18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F4 F8 E12:E18">
       <formula1>$J$3:$J$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
